--- a/code/data/combine.xlsx
+++ b/code/data/combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennymd/dev/renee-infographic/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2207BE89-A0D7-D54E-A18C-730F90954071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531E7C8-6BBE-534F-ACC4-5A36B7BE15AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
   </bookViews>
@@ -24,10 +24,10 @@
     <definedName name="teams_active_years" localSheetId="2">'competing years'!$A$1:$C$24</definedName>
     <definedName name="winners_annual" localSheetId="4">'winning drivers'!$A$1:$C$70</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId6"/>
-    <pivotCache cacheId="15" r:id="rId7"/>
+    <pivotCache cacheId="18" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +46,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{E3717CC3-5CC4-6044-BD49-9B0851830E3E}" name="teams_active_years" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/lennymd/dev/renee-infographic/code/data/teams_active_years.csv" comma="1">
+    <textPr sourceFile="/Users/lennymd/dev/renee-infographic/code/data/teams_active_years.csv" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="66">
   <si>
     <t>team</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>rank</t>
+  </si>
+  <si>
+    <t>z_years</t>
+  </si>
+  <si>
+    <t>z_wins</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1007,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F0C0D60-FFDA-7D4D-940E-5A1EEBCAF069}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F0C0D60-FFDA-7D4D-940E-5A1EEBCAF069}" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1104,7 +1110,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAAAEEF-A056-EF49-BFF9-D40D4B0282F6}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAAAEEF-A056-EF49-BFF9-D40D4B0282F6}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
@@ -1620,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4DA918-70AB-0C42-ADF6-C18075F11885}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,7 +1639,7 @@
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1649,8 +1655,14 @@
       <c r="E1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1661,15 +1673,23 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D17" si="0">C2/B2</f>
         <v>1</v>
       </c>
       <c r="E2">
-        <f>RANK(D2,D$2:D$17)</f>
+        <f t="shared" ref="E2:E17" si="1">RANK(D2,D$2:D$17)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>(B2-B$22)/B$23</f>
+        <v>-1.3126898920876178</v>
+      </c>
+      <c r="G2">
+        <f>(C2-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1680,15 +1700,23 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="E3">
-        <f>RANK(D3,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="2">(B3-B$22)/B$23</f>
+        <v>-0.72779515535997041</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="3">(C3-C$22)/C$23</f>
+        <v>0.66485130154612992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1699,15 +1727,23 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="E4">
-        <f>RANK(D4,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-0.56827840897970294</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>-7.730829087745697E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1718,15 +1754,23 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.22641509433962265</v>
       </c>
       <c r="E5">
-        <f>RANK(D5,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.4522670451703519</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>1.9017839555854414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1737,15 +1781,23 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="E6">
-        <f>RANK(D6,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>2.3561952746585342</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>2.6439435480090285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1756,15 +1808,23 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="E7">
-        <f>RANK(D7,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-0.78096740415339283</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>-0.57208135249318159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1775,15 +1835,23 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E8">
-        <f>RANK(D8,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-1.0468286481205054</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>-0.81946788330104392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1794,15 +1862,23 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="E9">
-        <f>RANK(D9,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.0268890548229719</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>0.66485130154612992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1813,15 +1889,23 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
       <c r="E10">
-        <f>RANK(D10,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.92054455723612694</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.41746477073826765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1832,15 +1916,23 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
       <c r="E11">
-        <f>RANK(D11,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.282477571715057</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>-7.730829087745697E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1851,15 +1943,23 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E12">
-        <f>RANK(D12,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>-0.51510616018628042</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>-0.57208135249318159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1870,15 +1970,23 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="E13">
-        <f>RANK(D13,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-0.35558941380601294</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>-0.57208135249318159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1889,15 +1997,23 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E14">
-        <f>RANK(D14,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>-0.78096740415339283</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>-0.81946788330104392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1908,15 +2024,23 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="E15">
-        <f>RANK(D15,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>6.9788576541367026E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>-0.57208135249318159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1927,15 +2051,23 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="E16">
-        <f>RANK(D16,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.176133074128212</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>-0.57208135249318159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1946,12 +2078,40 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="E17">
-        <f>RANK(D17,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>-0.19607266742574544</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>-0.81946788330104392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f>AVERAGE(B2:B17)</f>
+        <v>25.6875</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C17)</f>
+        <v>4.3125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f>STDEV(B2:B17)</f>
+        <v>18.806802847196899</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.STDEV.P(C2:C17)</f>
+        <v>4.0422572592550319</v>
       </c>
     </row>
   </sheetData>

--- a/code/data/combine.xlsx
+++ b/code/data/combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennymd/dev/renee-infographic/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531E7C8-6BBE-534F-ACC4-5A36B7BE15AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAC5D8C-8085-FC42-9901-2B3E27B5C689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="composite" sheetId="4" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="winning drivers" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">composite!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">composite!$A$1:$G$1</definedName>
     <definedName name="teams_active_years" localSheetId="2">'competing years'!$A$1:$C$24</definedName>
     <definedName name="winners_annual" localSheetId="4">'winning drivers'!$A$1:$C$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId6"/>
-    <pivotCache cacheId="19" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
   <si>
     <t>team</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>z_wins</t>
+  </si>
+  <si>
+    <t>log_winningest</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F0C0D60-FFDA-7D4D-940E-5A1EEBCAF069}" name="PivotTable4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F0C0D60-FFDA-7D4D-940E-5A1EEBCAF069}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1110,7 +1113,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAAAEEF-A056-EF49-BFF9-D40D4B0282F6}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAAAEEF-A056-EF49-BFF9-D40D4B0282F6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
@@ -1626,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4DA918-70AB-0C42-ADF6-C18075F11885}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1639,7 +1642,7 @@
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1661,8 +1664,11 @@
       <c r="G1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1673,11 +1679,11 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D17" si="0">C2/B2</f>
+        <f>C2/B2</f>
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E17" si="1">RANK(D2,D$2:D$17)</f>
+        <f>RANK(D2,D$2:D$17)</f>
         <v>1</v>
       </c>
       <c r="F2">
@@ -1688,8 +1694,12 @@
         <f>(C2-C$22)/C$23</f>
         <v>-0.81946788330104392</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>LOG10(D2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1700,23 +1710,27 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>C3/B3</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f>RANK(D3,D$2:D$17)</f>
         <v>2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="2">(B3-B$22)/B$23</f>
+        <f>(B3-B$22)/B$23</f>
         <v>-0.72779515535997041</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G17" si="3">(C3-C$22)/C$23</f>
+        <f>(C3-C$22)/C$23</f>
         <v>0.66485130154612992</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H17" si="0">LOG10(D3)</f>
+        <v>-0.23408320603336796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1727,23 +1741,27 @@
         <v>4</v>
       </c>
       <c r="D4">
+        <f>C4/B4</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E4">
+        <f>RANK(D4,D$2:D$17)</f>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>(B4-B$22)/B$23</f>
+        <v>-0.56827840897970294</v>
+      </c>
+      <c r="G4">
+        <f>(C4-C$22)/C$23</f>
+        <v>-7.730829087745697E-2</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>-0.56827840897970294</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>-7.730829087745697E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.57403126772771884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1754,23 +1772,27 @@
         <v>12</v>
       </c>
       <c r="D5">
+        <f>C5/B5</f>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="E5">
+        <f>RANK(D5,D$2:D$17)</f>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>(B5-B$22)/B$23</f>
+        <v>1.4522670451703519</v>
+      </c>
+      <c r="G5">
+        <f>(C5-C$22)/C$23</f>
+        <v>1.9017839555854414</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>1.4522670451703519</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>1.9017839555854414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.64509462355316416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1781,23 +1803,27 @@
         <v>15</v>
       </c>
       <c r="D6">
+        <f>C6/B6</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E6">
+        <f>RANK(D6,D$2:D$17)</f>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>(B6-B$22)/B$23</f>
+        <v>2.3561952746585342</v>
+      </c>
+      <c r="G6">
+        <f>(C6-C$22)/C$23</f>
+        <v>2.6439435480090285</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>2.3561952746585342</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>2.6439435480090285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.66900678095857558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1808,23 +1834,27 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <f>C7/B7</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="E7">
+        <f>RANK(D7,D$2:D$17)</f>
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>(B7-B$22)/B$23</f>
+        <v>-0.78096740415339283</v>
+      </c>
+      <c r="G7">
+        <f>(C7-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>-0.78096740415339283</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.74036268949424389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1835,23 +1865,27 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <f>C8/B8</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E8">
+        <f>RANK(D8,D$2:D$17)</f>
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>(B8-B$22)/B$23</f>
+        <v>-1.0468286481205054</v>
+      </c>
+      <c r="G8">
+        <f>(C8-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>-1.0468286481205054</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1862,23 +1896,27 @@
         <v>7</v>
       </c>
       <c r="D9">
+        <f>C9/B9</f>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="E9">
+        <f>RANK(D9,D$2:D$17)</f>
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f>(B9-B$22)/B$23</f>
+        <v>1.0268890548229719</v>
+      </c>
+      <c r="G9">
+        <f>(C9-C$22)/C$23</f>
+        <v>0.66485130154612992</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>1.0268890548229719</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0.66485130154612992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.8081144737610868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1889,23 +1927,27 @@
         <v>6</v>
       </c>
       <c r="D10">
+        <f>C10/B10</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="E10">
+        <f>RANK(D10,D$2:D$17)</f>
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f>(B10-B$22)/B$23</f>
+        <v>0.92054455723612694</v>
+      </c>
+      <c r="G10">
+        <f>(C10-C$22)/C$23</f>
+        <v>0.41746477073826765</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.92054455723612694</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0.41746477073826765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.8553172051959429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1916,23 +1958,27 @@
         <v>4</v>
       </c>
       <c r="D11">
+        <f>C11/B11</f>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="E11">
+        <f>RANK(D11,D$2:D$17)</f>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f>(B11-B$22)/B$23</f>
+        <v>0.282477571715057</v>
+      </c>
+      <c r="G11">
+        <f>(C11-C$22)/C$23</f>
+        <v>-7.730829087745697E-2</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0.282477571715057</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>-7.730829087745697E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.88930170250631035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1943,23 +1989,27 @@
         <v>2</v>
       </c>
       <c r="D12">
+        <f>C12/B12</f>
+        <v>0.125</v>
+      </c>
+      <c r="E12">
+        <f>RANK(D12,D$2:D$17)</f>
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <f>(B12-B$22)/B$23</f>
+        <v>-0.51510616018628042</v>
+      </c>
+      <c r="G12">
+        <f>(C12-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>-0.51510616018628042</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1970,23 +2020,27 @@
         <v>2</v>
       </c>
       <c r="D13">
+        <f>C13/B13</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E13">
+        <f>RANK(D13,D$2:D$17)</f>
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <f>(B13-B$22)/B$23</f>
+        <v>-0.35558941380601294</v>
+      </c>
+      <c r="G13">
+        <f>(C13-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>-0.35558941380601294</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-0.97772360528884783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1997,23 +2051,27 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <f>C14/B14</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E14">
+        <f>RANK(D14,D$2:D$17)</f>
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <f>(B14-B$22)/B$23</f>
+        <v>-0.78096740415339283</v>
+      </c>
+      <c r="G14">
+        <f>(C14-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>-0.78096740415339283</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-1.0413926851582249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2024,23 +2082,27 @@
         <v>2</v>
       </c>
       <c r="D15">
+        <f>C15/B15</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="E15">
+        <f>RANK(D15,D$2:D$17)</f>
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <f>(B15-B$22)/B$23</f>
+        <v>6.9788576541367026E-2</v>
+      </c>
+      <c r="G15">
+        <f>(C15-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>6.9788576541367026E-2</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-1.1303337684950061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2051,23 +2113,27 @@
         <v>2</v>
       </c>
       <c r="D16">
+        <f>C16/B16</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="E16">
+        <f>RANK(D16,D$2:D$17)</f>
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f>(B16-B$22)/B$23</f>
+        <v>0.176133074128212</v>
+      </c>
+      <c r="G16">
+        <f>(C16-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>0.176133074128212</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-1.1613680022349748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2078,23 +2144,27 @@
         <v>1</v>
       </c>
       <c r="D17">
+        <f>C17/B17</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="E17">
+        <f>RANK(D17,D$2:D$17)</f>
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <f>(B17-B$22)/B$23</f>
+        <v>-0.19607266742574544</v>
+      </c>
+      <c r="G17">
+        <f>(C17-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>-0.19607266742574544</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-1.3424226808222062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>AVERAGE(B2:B17)</f>
         <v>25.6875</v>
@@ -2104,7 +2174,7 @@
         <v>4.3125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23">
         <f>STDEV(B2:B17)</f>
         <v>18.806802847196899</v>
@@ -2115,8 +2185,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{31493E49-2CDB-754E-AFE1-8C1D44FCB9B4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+  <autoFilter ref="A1:G1" xr:uid="{10F88107-D4C1-584D-B4D9-0E073F56CB5E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
       <sortCondition ref="E1:E17"/>
     </sortState>
   </autoFilter>

--- a/code/data/combine.xlsx
+++ b/code/data/combine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennymd/dev/renee-infographic/code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennymd/dev/f1-infographic/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAC5D8C-8085-FC42-9901-2B3E27B5C689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28D55A-5C5D-194F-9A3C-E6DF5190DA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
+    <workbookView xWindow="6400" yWindow="3260" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="composite" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="winning drivers" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">composite!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">composite!$A$1:$I$1</definedName>
     <definedName name="teams_active_years" localSheetId="2">'competing years'!$A$1:$C$24</definedName>
     <definedName name="winners_annual" localSheetId="4">'winning drivers'!$A$1:$C$70</definedName>
   </definedNames>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="73">
   <si>
     <t>team</t>
   </si>
@@ -268,6 +268,24 @@
   </si>
   <si>
     <t>log_winningest</t>
+  </si>
+  <si>
+    <t>min opacity</t>
+  </si>
+  <si>
+    <t>max opacity</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>number of pieces</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>opacity step</t>
   </si>
 </sst>
 </file>
@@ -1629,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4DA918-70AB-0C42-ADF6-C18075F11885}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,9 +1658,11 @@
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1667,8 +1687,11 @@
       <c r="H1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1698,8 +1721,11 @@
         <f>LOG10(D2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1726,11 +1752,14 @@
         <v>0.66485130154612992</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H17" si="0">LOG10(D3)</f>
+        <f>LOG10(D3)</f>
         <v>-0.23408320603336796</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1757,11 +1786,14 @@
         <v>-7.730829087745697E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>LOG10(D4)</f>
         <v>-0.57403126772771884</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1788,11 +1820,14 @@
         <v>1.9017839555854414</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>LOG10(D5)</f>
         <v>-0.64509462355316416</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1819,11 +1854,14 @@
         <v>2.6439435480090285</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>LOG10(D6)</f>
         <v>-0.66900678095857558</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1850,11 +1888,14 @@
         <v>-0.57208135249318159</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f>LOG10(D7)</f>
         <v>-0.74036268949424389</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1881,11 +1922,14 @@
         <v>-0.81946788330104392</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f>LOG10(D8)</f>
         <v>-0.77815125038364363</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1912,11 +1956,14 @@
         <v>0.66485130154612992</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f>LOG10(D9)</f>
         <v>-0.8081144737610868</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1943,11 +1990,14 @@
         <v>0.41746477073826765</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>LOG10(D10)</f>
         <v>-0.8553172051959429</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1974,11 +2024,14 @@
         <v>-7.730829087745697E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>LOG10(D11)</f>
         <v>-0.88930170250631035</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2005,11 +2058,14 @@
         <v>-0.57208135249318159</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f>LOG10(D12)</f>
         <v>-0.90308998699194354</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2036,11 +2092,14 @@
         <v>-0.57208135249318159</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f>LOG10(D13)</f>
         <v>-0.97772360528884783</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -2067,11 +2126,14 @@
         <v>-0.81946788330104392</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f>LOG10(D14)</f>
         <v>-1.0413926851582249</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2098,11 +2160,14 @@
         <v>-0.57208135249318159</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f>LOG10(D15)</f>
         <v>-1.1303337684950061</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2129,11 +2194,14 @@
         <v>-0.57208135249318159</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f>LOG10(D16)</f>
         <v>-1.1613680022349748</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2160,11 +2228,14 @@
         <v>-0.81946788330104392</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f>LOG10(D17)</f>
         <v>-1.3424226808222062</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>AVERAGE(B2:B17)</f>
         <v>25.6875</v>
@@ -2174,7 +2245,7 @@
         <v>4.3125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <f>STDEV(B2:B17)</f>
         <v>18.806802847196899</v>
@@ -2184,10 +2255,52 @@
         <v>4.0422572592550319</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <f>C27-C26</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <f>C28/7</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{10F88107-D4C1-584D-B4D9-0E073F56CB5E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
-      <sortCondition ref="E1:E17"/>
+  <autoFilter ref="A1:I1" xr:uid="{DAC93B0D-F48A-EC4A-87E1-7E8F77943D90}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
+      <sortCondition descending="1" ref="D1:D17"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">

--- a/code/data/combine.xlsx
+++ b/code/data/combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennymd/dev/f1-infographic/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D28D55A-5C5D-194F-9A3C-E6DF5190DA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BBCBC1-B6D7-5A44-A16B-20FCE608D206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="3260" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
+    <workbookView xWindow="1760" yWindow="5620" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="composite" sheetId="4" r:id="rId1"/>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1702,23 +1702,23 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D17" si="0">C2/B2</f>
         <v>1</v>
       </c>
       <c r="E2">
-        <f>RANK(D2,D$2:D$17)</f>
+        <f t="shared" ref="E2:E17" si="1">RANK(D2,D$2:D$17)</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f>(B2-B$22)/B$23</f>
+        <f t="shared" ref="F2:F17" si="2">(B2-B$22)/B$23</f>
         <v>-1.3126898920876178</v>
       </c>
       <c r="G2">
-        <f>(C2-C$22)/C$23</f>
+        <f t="shared" ref="G2:G17" si="3">(C2-C$22)/C$23</f>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H2">
-        <f>LOG10(D2)</f>
+        <f t="shared" ref="H2:H17" si="4">LOG10(D2)</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -1736,23 +1736,23 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="E3">
-        <f>RANK(D3,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F3">
-        <f>(B3-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.72779515535997041</v>
       </c>
       <c r="G3">
-        <f>(C3-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>0.66485130154612992</v>
       </c>
       <c r="H3">
-        <f>LOG10(D3)</f>
+        <f t="shared" si="4"/>
         <v>-0.23408320603336796</v>
       </c>
       <c r="I3">
@@ -1770,23 +1770,23 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="E4">
-        <f>RANK(D4,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F4">
-        <f>(B4-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.56827840897970294</v>
       </c>
       <c r="G4">
-        <f>(C4-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-7.730829087745697E-2</v>
       </c>
       <c r="H4">
-        <f>LOG10(D4)</f>
+        <f t="shared" si="4"/>
         <v>-0.57403126772771884</v>
       </c>
       <c r="I4">
@@ -1804,23 +1804,23 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.22641509433962265</v>
       </c>
       <c r="E5">
-        <f>RANK(D5,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F5">
-        <f>(B5-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>1.4522670451703519</v>
       </c>
       <c r="G5">
-        <f>(C5-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>1.9017839555854414</v>
       </c>
       <c r="H5">
-        <f>LOG10(D5)</f>
+        <f t="shared" si="4"/>
         <v>-0.64509462355316416</v>
       </c>
       <c r="I5">
@@ -1838,23 +1838,23 @@
         <v>15</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="E6">
-        <f>RANK(D6,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F6">
-        <f>(B6-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>2.3561952746585342</v>
       </c>
       <c r="G6">
-        <f>(C6-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>2.6439435480090285</v>
       </c>
       <c r="H6">
-        <f>LOG10(D6)</f>
+        <f t="shared" si="4"/>
         <v>-0.66900678095857558</v>
       </c>
       <c r="I6">
@@ -1872,23 +1872,23 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="E7">
-        <f>RANK(D7,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F7">
-        <f>(B7-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.78096740415339283</v>
       </c>
       <c r="G7">
-        <f>(C7-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H7">
-        <f>LOG10(D7)</f>
+        <f t="shared" si="4"/>
         <v>-0.74036268949424389</v>
       </c>
       <c r="I7">
@@ -1906,23 +1906,23 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E8">
-        <f>RANK(D8,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F8">
-        <f>(B8-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-1.0468286481205054</v>
       </c>
       <c r="G8">
-        <f>(C8-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H8">
-        <f>LOG10(D8)</f>
+        <f t="shared" si="4"/>
         <v>-0.77815125038364363</v>
       </c>
       <c r="I8">
@@ -1940,23 +1940,23 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="E9">
-        <f>RANK(D9,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F9">
-        <f>(B9-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>1.0268890548229719</v>
       </c>
       <c r="G9">
-        <f>(C9-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>0.66485130154612992</v>
       </c>
       <c r="H9">
-        <f>LOG10(D9)</f>
+        <f t="shared" si="4"/>
         <v>-0.8081144737610868</v>
       </c>
       <c r="I9">
@@ -1974,23 +1974,23 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
       <c r="E10">
-        <f>RANK(D10,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F10">
-        <f>(B10-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>0.92054455723612694</v>
       </c>
       <c r="G10">
-        <f>(C10-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>0.41746477073826765</v>
       </c>
       <c r="H10">
-        <f>LOG10(D10)</f>
+        <f t="shared" si="4"/>
         <v>-0.8553172051959429</v>
       </c>
       <c r="I10">
@@ -2008,23 +2008,23 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
       <c r="E11">
-        <f>RANK(D11,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F11">
-        <f>(B11-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>0.282477571715057</v>
       </c>
       <c r="G11">
-        <f>(C11-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-7.730829087745697E-2</v>
       </c>
       <c r="H11">
-        <f>LOG10(D11)</f>
+        <f t="shared" si="4"/>
         <v>-0.88930170250631035</v>
       </c>
       <c r="I11">
@@ -2042,23 +2042,23 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E12">
-        <f>RANK(D12,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F12">
-        <f>(B12-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.51510616018628042</v>
       </c>
       <c r="G12">
-        <f>(C12-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H12">
-        <f>LOG10(D12)</f>
+        <f t="shared" si="4"/>
         <v>-0.90308998699194354</v>
       </c>
       <c r="I12">
@@ -2076,23 +2076,23 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="E13">
-        <f>RANK(D13,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F13">
-        <f>(B13-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.35558941380601294</v>
       </c>
       <c r="G13">
-        <f>(C13-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H13">
-        <f>LOG10(D13)</f>
+        <f t="shared" si="4"/>
         <v>-0.97772360528884783</v>
       </c>
       <c r="I13">
@@ -2110,23 +2110,23 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E14">
-        <f>RANK(D14,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F14">
-        <f>(B14-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.78096740415339283</v>
       </c>
       <c r="G14">
-        <f>(C14-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H14">
-        <f>LOG10(D14)</f>
+        <f t="shared" si="4"/>
         <v>-1.0413926851582249</v>
       </c>
       <c r="I14">
@@ -2144,23 +2144,23 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="E15">
-        <f>RANK(D15,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F15">
-        <f>(B15-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>6.9788576541367026E-2</v>
       </c>
       <c r="G15">
-        <f>(C15-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H15">
-        <f>LOG10(D15)</f>
+        <f t="shared" si="4"/>
         <v>-1.1303337684950061</v>
       </c>
       <c r="I15">
@@ -2178,23 +2178,23 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="E16">
-        <f>RANK(D16,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F16">
-        <f>(B16-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>0.176133074128212</v>
       </c>
       <c r="G16">
-        <f>(C16-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H16">
-        <f>LOG10(D16)</f>
+        <f t="shared" si="4"/>
         <v>-1.1613680022349748</v>
       </c>
       <c r="I16">
@@ -2212,23 +2212,23 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="E17">
-        <f>RANK(D17,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F17">
-        <f>(B17-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.19607266742574544</v>
       </c>
       <c r="G17">
-        <f>(C17-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H17">
-        <f>LOG10(D17)</f>
+        <f t="shared" si="4"/>
         <v>-1.3424226808222062</v>
       </c>
       <c r="I17">

--- a/code/data/combine.xlsx
+++ b/code/data/combine.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennymd/dev/f1-infographic/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BBCBC1-B6D7-5A44-A16B-20FCE608D206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D986087-D5C1-BE42-AF4F-8D640881D062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="5620" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
+    <workbookView xWindow="2620" yWindow="980" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="composite" sheetId="4" r:id="rId1"/>
     <sheet name="pivot competition years" sheetId="8" r:id="rId2"/>
     <sheet name="competing years" sheetId="1" r:id="rId3"/>
     <sheet name="pivot winning drivers" sheetId="6" r:id="rId4"/>
-    <sheet name="winning drivers" sheetId="5" r:id="rId5"/>
+    <sheet name="pivot championship drivers" sheetId="9" r:id="rId5"/>
+    <sheet name="winning drivers" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">composite!$A$1:$I$1</definedName>
     <definedName name="teams_active_years" localSheetId="2">'competing years'!$A$1:$C$24</definedName>
-    <definedName name="winners_annual" localSheetId="4">'winning drivers'!$A$1:$C$70</definedName>
+    <definedName name="winners_annual" localSheetId="5">'winning drivers'!$A$1:$C$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="73">
   <si>
     <t>team</t>
   </si>
@@ -252,9 +253,6 @@
     <t>years_competing</t>
   </si>
   <si>
-    <t>tean</t>
-  </si>
-  <si>
     <t>winningest</t>
   </si>
   <si>
@@ -286,6 +284,9 @@
   </si>
   <si>
     <t>opacity step</t>
+  </si>
+  <si>
+    <t>drivers</t>
   </si>
 </sst>
 </file>
@@ -321,13 +322,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,7 +1135,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAAAEEF-A056-EF49-BFF9-D40D4B0282F6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAAAEEF-A056-EF49-BFF9-D40D4B0282F6}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
@@ -1329,6 +1333,281 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of year" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{892D4DC3-7179-DC45-8FEE-DDA212C2295A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="34">
+        <item x="20"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="25"/>
+        <item x="14"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="15"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="3"/>
+        <item x="18"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="62">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of year" fld="0" subtotal="countNums" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1647,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4DA918-70AB-0C42-ADF6-C18075F11885}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J17" sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1662,9 +1941,9 @@
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1673,467 +1952,509 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
       <c r="I1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D17" si="0">C2/B2</f>
-        <v>1</v>
+        <f>C2/B2</f>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E17" si="1">RANK(D2,D$2:D$17)</f>
-        <v>1</v>
+        <f>RANK(D2,D$2:D$17)</f>
+        <v>6</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F17" si="2">(B2-B$22)/B$23</f>
-        <v>-1.3126898920876178</v>
+        <f>(B2-B$22)/B$23</f>
+        <v>-0.78096740415339283</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G17" si="3">(C2-C$22)/C$23</f>
-        <v>-0.81946788330104392</v>
+        <f>(C2-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H17" si="4">LOG10(D2)</f>
-        <v>0</v>
+        <f>LOG10(D2)</f>
+        <v>-0.74036268949424389</v>
       </c>
       <c r="I2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <f>C3/B3</f>
+        <v>0.125</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>RANK(D3,D$2:D$17)</f>
+        <v>11</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
-        <v>-0.72779515535997041</v>
+        <f>(B3-B$22)/B$23</f>
+        <v>-0.51510616018628042</v>
       </c>
       <c r="G3">
-        <f t="shared" si="3"/>
-        <v>0.66485130154612992</v>
+        <f>(C3-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
       </c>
       <c r="H3">
-        <f t="shared" si="4"/>
-        <v>-0.23408320603336796</v>
+        <f>LOG10(D3)</f>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <f>C4/B4</f>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>RANK(D4,D$2:D$17)</f>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f>(B4-B$22)/B$23</f>
+        <v>0.282477571715057</v>
+      </c>
+      <c r="G4">
+        <f>(C4-C$22)/C$23</f>
+        <v>-7.730829087745697E-2</v>
+      </c>
+      <c r="H4">
+        <f>LOG10(D4)</f>
+        <v>-0.88930170250631035</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>-0.56827840897970294</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>-7.730829087745697E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="4"/>
-        <v>-0.57403126772771884</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.22641509433962265</v>
+        <f>C5/B5</f>
+        <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>RANK(D5,D$2:D$17)</f>
+        <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>1.4522670451703519</v>
+        <f>(B5-B$22)/B$23</f>
+        <v>-1.3126898920876178</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
-        <v>1.9017839555854414</v>
+        <f>(C5-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
-        <v>-0.64509462355316416</v>
+        <f>LOG10(D5)</f>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <f>C6/B6</f>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f>RANK(D6,D$2:D$17)</f>
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <f>(B6-B$22)/B$23</f>
+        <v>-0.19607266742574544</v>
+      </c>
+      <c r="G6">
+        <f>(C6-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
+      </c>
+      <c r="H6">
+        <f>LOG10(D6)</f>
+        <v>-1.3424226808222062</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>2.3561952746585342</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>2.6439435480090285</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>-0.66900678095857558</v>
-      </c>
-      <c r="I6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="B7" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
+        <f>C7/B7</f>
+        <v>0.10526315789473684</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>RANK(D7,D$2:D$17)</f>
+        <v>12</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>-0.78096740415339283</v>
+        <f>(B7-B$22)/B$23</f>
+        <v>-0.35558941380601294</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f>(C7-C$22)/C$23</f>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>-0.74036268949424389</v>
+        <f>LOG10(D7)</f>
+        <v>-0.97772360528884783</v>
       </c>
       <c r="I7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <f>C8/B8</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E8">
+        <f>RANK(D8,D$2:D$17)</f>
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f>(B8-B$22)/B$23</f>
+        <v>2.3561952746585342</v>
+      </c>
+      <c r="G8">
+        <f>(C8-C$22)/C$23</f>
+        <v>2.6439435480090285</v>
+      </c>
+      <c r="H8">
+        <f>LOG10(D8)</f>
+        <v>-0.66900678095857558</v>
+      </c>
+      <c r="I8">
+        <v>70</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>-1.0468286481205054</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="4"/>
-        <v>-0.77815125038364363</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3">
-        <v>7</v>
-      </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.15555555555555556</v>
+        <f>C9/B9</f>
+        <v>0.13953488372093023</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>RANK(D9,D$2:D$17)</f>
+        <v>9</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>1.0268890548229719</v>
+        <f>(B9-B$22)/B$23</f>
+        <v>0.92054455723612694</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0.66485130154612992</v>
+        <f>(C9-C$22)/C$23</f>
+        <v>0.41746477073826765</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
-        <v>-0.8081144737610868</v>
+        <f>LOG10(D9)</f>
+        <v>-0.8553172051959429</v>
       </c>
       <c r="I9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>C10/B10</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E10">
+        <f>RANK(D10,D$2:D$17)</f>
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <f>(B10-B$22)/B$23</f>
+        <v>-0.78096740415339283</v>
+      </c>
+      <c r="G10">
+        <f>(C10-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
+      </c>
+      <c r="H10">
+        <f>LOG10(D10)</f>
+        <v>-1.0413926851582249</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>0.92054455723612694</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0.41746477073826765</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>-0.8553172051959429</v>
-      </c>
-      <c r="I10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>C11/B11</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E11">
+        <f>RANK(D11,D$2:D$17)</f>
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f>(B11-B$22)/B$23</f>
+        <v>-1.0468286481205054</v>
+      </c>
+      <c r="G11">
+        <f>(C11-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
+      </c>
+      <c r="H11">
+        <f>LOG10(D11)</f>
+        <v>-0.77815125038364363</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f>C12/B12</f>
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="E12">
+        <f>RANK(D12,D$2:D$17)</f>
         <v>4</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>0.282477571715057</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>-7.730829087745697E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>-0.88930170250631035</v>
-      </c>
-      <c r="I11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="F12">
+        <f>(B12-B$22)/B$23</f>
+        <v>1.4522670451703519</v>
+      </c>
+      <c r="G12">
+        <f>(C12-C$22)/C$23</f>
+        <v>1.9017839555854414</v>
+      </c>
+      <c r="H12">
+        <f>LOG10(D12)</f>
+        <v>-0.64509462355316416</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <f>C13/B13</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13">
+        <f>RANK(D13,D$2:D$17)</f>
         <v>2</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>-0.51510616018628042</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>-0.90308998699194354</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>-0.35558941380601294</v>
+        <f>(B13-B$22)/B$23</f>
+        <v>-0.72779515535997041</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
+        <f>(C13-C$22)/C$23</f>
+        <v>0.66485130154612992</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
-        <v>-0.97772360528884783</v>
+        <f>LOG10(D13)</f>
+        <v>-0.23408320603336796</v>
       </c>
       <c r="I13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <f>C14/B14</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>RANK(D14,D$2:D$17)</f>
+        <v>3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>-0.78096740415339283</v>
+        <f>(B14-B$22)/B$23</f>
+        <v>-0.56827840897970294</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
+        <f>(C14-C$22)/C$23</f>
+        <v>-7.730829087745697E-2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
-        <v>-1.0413926851582249</v>
+        <f>LOG10(D14)</f>
+        <v>-0.57403126772771884</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -2144,30 +2465,33 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>C15/B15</f>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f>RANK(D15,D$2:D$17)</f>
         <v>14</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f>(B15-B$22)/B$23</f>
         <v>6.9788576541367026E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f>(C15-C$22)/C$23</f>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
+        <f>LOG10(D15)</f>
         <v>-1.1303337684950061</v>
       </c>
       <c r="I15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2178,64 +2502,70 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>C16/B16</f>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f>RANK(D16,D$2:D$17)</f>
         <v>15</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f>(B16-B$22)/B$23</f>
         <v>0.176133074128212</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f>(C16-C$22)/C$23</f>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
+        <f>LOG10(D16)</f>
         <v>-1.1613680022349748</v>
       </c>
       <c r="I16">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3">
         <v>7</v>
       </c>
-      <c r="B17" s="3">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
+        <f>C17/B17</f>
+        <v>0.15555555555555556</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>RANK(D17,D$2:D$17)</f>
+        <v>8</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>-0.19607266742574544</v>
+        <f>(B17-B$22)/B$23</f>
+        <v>1.0268890548229719</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
+        <f>(C17-C$22)/C$23</f>
+        <v>0.66485130154612992</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
-        <v>-1.3424226808222062</v>
+        <f>LOG10(D17)</f>
+        <v>-0.8081144737610868</v>
       </c>
       <c r="I17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <f>AVERAGE(B2:B17)</f>
         <v>25.6875</v>
@@ -2245,7 +2575,7 @@
         <v>4.3125</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <f>STDEV(B2:B17)</f>
         <v>18.806802847196899</v>
@@ -2255,42 +2585,42 @@
         <v>4.0422572592550319</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>68</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>69</v>
       </c>
       <c r="C28">
         <f>C27-C26</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <f>C28/7</f>
@@ -2298,9 +2628,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{DAC93B0D-F48A-EC4A-87E1-7E8F77943D90}">
+  <autoFilter ref="A1:I1" xr:uid="{7F88F6E3-5FB6-EE4F-A687-EA62A9D9B0E9}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
-      <sortCondition descending="1" ref="D1:D17"/>
+      <sortCondition ref="A1:A17"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
@@ -3013,11 +3343,534 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43D6FAA-C4DB-0342-B767-15E2125B9F99}">
+  <dimension ref="A3:B65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="3">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E30FD6-FEFD-B643-9B2C-A041C2E0A6F0}">
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/code/data/combine.xlsx
+++ b/code/data/combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennymd/dev/f1-infographic/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D986087-D5C1-BE42-AF4F-8D640881D062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDAC58E-816B-1149-8440-59A314080F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="980" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="composite" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
     <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
@@ -1135,7 +1135,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAAAEEF-A056-EF49-BFF9-D40D4B0282F6}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4BAAAEEF-A056-EF49-BFF9-D40D4B0282F6}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{892D4DC3-7179-DC45-8FEE-DDA212C2295A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{892D4DC3-7179-DC45-8FEE-DDA212C2295A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="A1:J17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,23 +1984,23 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <f>C2/B2</f>
+        <f t="shared" ref="D2:D17" si="0">C2/B2</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="E2">
-        <f>RANK(D2,D$2:D$17)</f>
+        <f t="shared" ref="E2:E17" si="1">RANK(D2,D$2:D$17)</f>
         <v>6</v>
       </c>
       <c r="F2">
-        <f>(B2-B$22)/B$23</f>
+        <f t="shared" ref="F2:F17" si="2">(B2-B$22)/B$23</f>
         <v>-0.78096740415339283</v>
       </c>
       <c r="G2">
-        <f>(C2-C$22)/C$23</f>
+        <f t="shared" ref="G2:G17" si="3">(C2-C$22)/C$23</f>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H2">
-        <f>LOG10(D2)</f>
+        <f t="shared" ref="H2:H17" si="4">LOG10(D2)</f>
         <v>-0.74036268949424389</v>
       </c>
       <c r="I2">
@@ -2021,23 +2021,23 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E3">
-        <f>RANK(D3,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F3">
-        <f>(B3-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.51510616018628042</v>
       </c>
       <c r="G3">
-        <f>(C3-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H3">
-        <f>LOG10(D3)</f>
+        <f t="shared" si="4"/>
         <v>-0.90308998699194354</v>
       </c>
       <c r="I3">
@@ -2058,23 +2058,23 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.12903225806451613</v>
       </c>
       <c r="E4">
-        <f>RANK(D4,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F4">
-        <f>(B4-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>0.282477571715057</v>
       </c>
       <c r="G4">
-        <f>(C4-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-7.730829087745697E-2</v>
       </c>
       <c r="H4">
-        <f>LOG10(D4)</f>
+        <f t="shared" si="4"/>
         <v>-0.88930170250631035</v>
       </c>
       <c r="I4">
@@ -2095,23 +2095,23 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5">
-        <f>RANK(D5,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <f>(B5-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-1.3126898920876178</v>
       </c>
       <c r="G5">
-        <f>(C5-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H5">
-        <f>LOG10(D5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I5">
@@ -2132,23 +2132,23 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="E6">
-        <f>RANK(D6,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F6">
-        <f>(B6-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.19607266742574544</v>
       </c>
       <c r="G6">
-        <f>(C6-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H6">
-        <f>LOG10(D6)</f>
+        <f t="shared" si="4"/>
         <v>-1.3424226808222062</v>
       </c>
       <c r="I6">
@@ -2169,23 +2169,23 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="E7">
-        <f>RANK(D7,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F7">
-        <f>(B7-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.35558941380601294</v>
       </c>
       <c r="G7">
-        <f>(C7-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H7">
-        <f>LOG10(D7)</f>
+        <f t="shared" si="4"/>
         <v>-0.97772360528884783</v>
       </c>
       <c r="I7">
@@ -2206,23 +2206,23 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="E8">
-        <f>RANK(D8,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F8">
-        <f>(B8-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>2.3561952746585342</v>
       </c>
       <c r="G8">
-        <f>(C8-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>2.6439435480090285</v>
       </c>
       <c r="H8">
-        <f>LOG10(D8)</f>
+        <f t="shared" si="4"/>
         <v>-0.66900678095857558</v>
       </c>
       <c r="I8">
@@ -2243,23 +2243,23 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.13953488372093023</v>
       </c>
       <c r="E9">
-        <f>RANK(D9,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F9">
-        <f>(B9-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>0.92054455723612694</v>
       </c>
       <c r="G9">
-        <f>(C9-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>0.41746477073826765</v>
       </c>
       <c r="H9">
-        <f>LOG10(D9)</f>
+        <f t="shared" si="4"/>
         <v>-0.8553172051959429</v>
       </c>
       <c r="I9">
@@ -2280,23 +2280,23 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E10">
-        <f>RANK(D10,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F10">
-        <f>(B10-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.78096740415339283</v>
       </c>
       <c r="G10">
-        <f>(C10-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H10">
-        <f>LOG10(D10)</f>
+        <f t="shared" si="4"/>
         <v>-1.0413926851582249</v>
       </c>
       <c r="I10">
@@ -2317,23 +2317,23 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E11">
-        <f>RANK(D11,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F11">
-        <f>(B11-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-1.0468286481205054</v>
       </c>
       <c r="G11">
-        <f>(C11-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H11">
-        <f>LOG10(D11)</f>
+        <f t="shared" si="4"/>
         <v>-0.77815125038364363</v>
       </c>
       <c r="I11">
@@ -2354,23 +2354,23 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>0.22641509433962265</v>
       </c>
       <c r="E12">
-        <f>RANK(D12,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F12">
-        <f>(B12-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>1.4522670451703519</v>
       </c>
       <c r="G12">
-        <f>(C12-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>1.9017839555854414</v>
       </c>
       <c r="H12">
-        <f>LOG10(D12)</f>
+        <f t="shared" si="4"/>
         <v>-0.64509462355316416</v>
       </c>
       <c r="I12">
@@ -2391,23 +2391,23 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="E13">
-        <f>RANK(D13,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F13">
-        <f>(B13-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.72779515535997041</v>
       </c>
       <c r="G13">
-        <f>(C13-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>0.66485130154612992</v>
       </c>
       <c r="H13">
-        <f>LOG10(D13)</f>
+        <f t="shared" si="4"/>
         <v>-0.23408320603336796</v>
       </c>
       <c r="I13">
@@ -2428,23 +2428,23 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="E14">
-        <f>RANK(D14,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F14">
-        <f>(B14-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>-0.56827840897970294</v>
       </c>
       <c r="G14">
-        <f>(C14-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-7.730829087745697E-2</v>
       </c>
       <c r="H14">
-        <f>LOG10(D14)</f>
+        <f t="shared" si="4"/>
         <v>-0.57403126772771884</v>
       </c>
       <c r="I14">
@@ -2465,23 +2465,23 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="E15">
-        <f>RANK(D15,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F15">
-        <f>(B15-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>6.9788576541367026E-2</v>
       </c>
       <c r="G15">
-        <f>(C15-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H15">
-        <f>LOG10(D15)</f>
+        <f t="shared" si="4"/>
         <v>-1.1303337684950061</v>
       </c>
       <c r="I15">
@@ -2502,23 +2502,23 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="E16">
-        <f>RANK(D16,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F16">
-        <f>(B16-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>0.176133074128212</v>
       </c>
       <c r="G16">
-        <f>(C16-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H16">
-        <f>LOG10(D16)</f>
+        <f t="shared" si="4"/>
         <v>-1.1613680022349748</v>
       </c>
       <c r="I16">
@@ -2539,23 +2539,23 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="E17">
-        <f>RANK(D17,D$2:D$17)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F17">
-        <f>(B17-B$22)/B$23</f>
+        <f t="shared" si="2"/>
         <v>1.0268890548229719</v>
       </c>
       <c r="G17">
-        <f>(C17-C$22)/C$23</f>
+        <f t="shared" si="3"/>
         <v>0.66485130154612992</v>
       </c>
       <c r="H17">
-        <f>LOG10(D17)</f>
+        <f t="shared" si="4"/>
         <v>-0.8081144737610868</v>
       </c>
       <c r="I17">
@@ -2563,6 +2563,16 @@
       </c>
       <c r="J17">
         <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>MEDIAN(B2:B17)</f>
+        <v>20.5</v>
+      </c>
+      <c r="C21">
+        <f>MEDIAN(C2:C17)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">

--- a/code/data/combine.xlsx
+++ b/code/data/combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lennymd/dev/f1-infographic/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDAC58E-816B-1149-8440-59A314080F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E4E704-CA21-3344-B5C6-10585AD8048A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
+    <workbookView xWindow="6400" yWindow="3260" windowWidth="25600" windowHeight="15540" xr2:uid="{0B250B1D-37AA-0544-8798-52B140837C4B}"/>
   </bookViews>
   <sheets>
     <sheet name="composite" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="winning drivers" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">composite!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">composite!$A$1:$J$1</definedName>
     <definedName name="teams_active_years" localSheetId="2">'competing years'!$A$1:$C$24</definedName>
     <definedName name="winners_annual" localSheetId="5">'winning drivers'!$A$1:$C$70</definedName>
   </definedNames>
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1975,73 +1975,73 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D17" si="0">C2/B2</f>
-        <v>0.18181818181818182</v>
+        <f>C2/B2</f>
+        <v>0.125</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E17" si="1">RANK(D2,D$2:D$17)</f>
-        <v>6</v>
+        <f>RANK(D2,D$2:D$17)</f>
+        <v>11</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F17" si="2">(B2-B$22)/B$23</f>
-        <v>-0.78096740415339283</v>
+        <f>(B2-B$22)/B$23</f>
+        <v>-0.51510616018628042</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G17" si="3">(C2-C$22)/C$23</f>
+        <f>(C2-C$22)/C$23</f>
         <v>-0.57208135249318159</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H17" si="4">LOG10(D2)</f>
-        <v>-0.74036268949424389</v>
+        <f>LOG10(D2)</f>
+        <v>-0.90308998699194354</v>
       </c>
       <c r="I2">
         <v>20</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f>C3/B3</f>
+        <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>RANK(D3,D$2:D$17)</f>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
-        <v>-0.51510616018628042</v>
+        <f>(B3-B$22)/B$23</f>
+        <v>-1.3126898920876178</v>
       </c>
       <c r="G3">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
+        <f>(C3-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
       </c>
       <c r="H3">
-        <f t="shared" si="4"/>
-        <v>-0.90308998699194354</v>
+        <f>LOG10(D3)</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2049,73 +2049,73 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.12903225806451613</v>
+        <f>C4/B4</f>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>RANK(D4,D$2:D$17)</f>
+        <v>16</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.282477571715057</v>
+        <f>(B4-B$22)/B$23</f>
+        <v>-0.19607266742574544</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
-        <v>-7.730829087745697E-2</v>
+        <f>(C4-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
       </c>
       <c r="H4">
-        <f t="shared" si="4"/>
-        <v>-0.88930170250631035</v>
+        <f>LOG10(D4)</f>
+        <v>-1.3424226808222062</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C5/B5</f>
+        <v>0.10526315789473684</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>RANK(D5,D$2:D$17)</f>
+        <v>12</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>-1.3126898920876178</v>
+        <f>(B5-B$22)/B$23</f>
+        <v>-0.35558941380601294</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
+        <f>(C5-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
       </c>
       <c r="H5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>LOG10(D5)</f>
+        <v>-0.97772360528884783</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2123,36 +2123,36 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
+        <f>C6/B6</f>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>RANK(D6,D$2:D$17)</f>
+        <v>13</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-0.19607266742574544</v>
+        <f>(B6-B$22)/B$23</f>
+        <v>-0.78096740415339283</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f>(C6-C$22)/C$23</f>
         <v>-0.81946788330104392</v>
       </c>
       <c r="H6">
-        <f t="shared" si="4"/>
-        <v>-1.3424226808222062</v>
+        <f>LOG10(D6)</f>
+        <v>-1.0413926851582249</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2160,36 +2160,36 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.10526315789473684</v>
+        <f>C7/B7</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>RANK(D7,D$2:D$17)</f>
+        <v>7</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>-0.35558941380601294</v>
+        <f>(B7-B$22)/B$23</f>
+        <v>-1.0468286481205054</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
+        <f>(C7-C$22)/C$23</f>
+        <v>-0.81946788330104392</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
-        <v>-0.97772360528884783</v>
+        <f>LOG10(D7)</f>
+        <v>-0.77815125038364363</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2197,110 +2197,110 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f>C8/B8</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E8">
+        <f>RANK(D8,D$2:D$17)</f>
         <v>3</v>
       </c>
-      <c r="B8" s="3">
-        <v>70</v>
-      </c>
-      <c r="C8" s="3">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>2.3561952746585342</v>
+        <f>(B8-B$22)/B$23</f>
+        <v>-0.56827840897970294</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>2.6439435480090285</v>
+        <f>(C8-C$22)/C$23</f>
+        <v>-7.730829087745697E-2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
-        <v>-0.66900678095857558</v>
+        <f>LOG10(D8)</f>
+        <v>-0.57403126772771884</v>
       </c>
       <c r="I8">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.13953488372093023</v>
+        <f>C9/B9</f>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>RANK(D9,D$2:D$17)</f>
+        <v>14</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>0.92054455723612694</v>
+        <f>(B9-B$22)/B$23</f>
+        <v>6.9788576541367026E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>0.41746477073826765</v>
+        <f>(C9-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
-        <v>-0.8553172051959429</v>
+        <f>LOG10(D9)</f>
+        <v>-1.1303337684950061</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <f>C10/B10</f>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>RANK(D10,D$2:D$17)</f>
+        <v>15</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>-0.78096740415339283</v>
+        <f>(B10-B$22)/B$23</f>
+        <v>0.176133074128212</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
+        <f>(C10-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
-        <v>-1.0413926851582249</v>
+        <f>LOG10(D10)</f>
+        <v>-1.1613680022349748</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2308,76 +2308,76 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f>C11/B11</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="E11">
+        <f>RANK(D11,D$2:D$17)</f>
         <v>6</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>-1.0468286481205054</v>
+        <f>(B11-B$22)/B$23</f>
+        <v>-0.78096740415339283</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>-0.81946788330104392</v>
+        <f>(C11-C$22)/C$23</f>
+        <v>-0.57208135249318159</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
-        <v>-0.77815125038364363</v>
+        <f>LOG10(D11)</f>
+        <v>-0.74036268949424389</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.22641509433962265</v>
+        <f>C12/B12</f>
+        <v>0.12903225806451613</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>RANK(D12,D$2:D$17)</f>
+        <v>10</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>1.4522670451703519</v>
+        <f>(B12-B$22)/B$23</f>
+        <v>0.282477571715057</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>1.9017839555854414</v>
+        <f>(C12-C$22)/C$23</f>
+        <v>-7.730829087745697E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
-        <v>-0.64509462355316416</v>
+        <f>LOG10(D12)</f>
+        <v>-0.88930170250631035</v>
       </c>
       <c r="I12">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2391,23 +2391,23 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>C13/B13</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f>RANK(D13,D$2:D$17)</f>
         <v>2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f>(B13-B$22)/B$23</f>
         <v>-0.72779515535997041</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f>(C13-C$22)/C$23</f>
         <v>0.66485130154612992</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f>LOG10(D13)</f>
         <v>-0.23408320603336796</v>
       </c>
       <c r="I13">
@@ -2419,150 +2419,150 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <f>C14/B14</f>
+        <v>0.13953488372093023</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>RANK(D14,D$2:D$17)</f>
+        <v>9</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>-0.56827840897970294</v>
+        <f>(B14-B$22)/B$23</f>
+        <v>0.92054455723612694</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>-7.730829087745697E-2</v>
+        <f>(C14-C$22)/C$23</f>
+        <v>0.41746477073826765</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
-        <v>-0.57403126772771884</v>
+        <f>LOG10(D14)</f>
+        <v>-0.8553172051959429</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>7.407407407407407E-2</v>
+        <f>C15/B15</f>
+        <v>0.22641509433962265</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>RANK(D15,D$2:D$17)</f>
+        <v>4</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>6.9788576541367026E-2</v>
+        <f>(B15-B$22)/B$23</f>
+        <v>1.4522670451703519</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
+        <f>(C15-C$22)/C$23</f>
+        <v>1.9017839555854414</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
-        <v>-1.1303337684950061</v>
+        <f>LOG10(D15)</f>
+        <v>-0.64509462355316416</v>
       </c>
       <c r="I15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>6.8965517241379309E-2</v>
+        <f>C16/B16</f>
+        <v>0.15555555555555556</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>RANK(D16,D$2:D$17)</f>
+        <v>8</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>0.176133074128212</v>
+        <f>(B16-B$22)/B$23</f>
+        <v>1.0268890548229719</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
-        <v>-0.57208135249318159</v>
+        <f>(C16-C$22)/C$23</f>
+        <v>0.66485130154612992</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
-        <v>-1.1613680022349748</v>
+        <f>LOG10(D16)</f>
+        <v>-0.8081144737610868</v>
       </c>
       <c r="I16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.15555555555555556</v>
+        <f>C17/B17</f>
+        <v>0.21428571428571427</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>RANK(D17,D$2:D$17)</f>
+        <v>5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>1.0268890548229719</v>
+        <f>(B17-B$22)/B$23</f>
+        <v>2.3561952746585342</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0.66485130154612992</v>
+        <f>(C17-C$22)/C$23</f>
+        <v>2.6439435480090285</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
-        <v>-0.8081144737610868</v>
+        <f>LOG10(D17)</f>
+        <v>-0.66900678095857558</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2638,9 +2638,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{7F88F6E3-5FB6-EE4F-A687-EA62A9D9B0E9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I17">
-      <sortCondition ref="A1:A17"/>
+  <autoFilter ref="A1:J1" xr:uid="{105172D7-DCD2-F84D-9A85-2BE44210AFBE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+      <sortCondition ref="J1:J17"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
